--- a/Tiempos y graficas.xlsx
+++ b/Tiempos y graficas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/mar22266_uvg_edu_gt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad4ac81e14f47d95/Desktop/HT G/ES2023-HDT5-G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{F20F71B9-1013-4D46-BA99-48ADACB04E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE0583F-56FE-4E63-9F20-E179A477FDBD}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{F20F71B9-1013-4D46-BA99-48ADACB04E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0808FFEA-F1DF-46D7-A4DA-77FC492F380A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BA46FBF6-1A0D-403E-9867-FE4721430C64}"/>
+    <workbookView xWindow="315" yWindow="495" windowWidth="17250" windowHeight="9405" activeTab="3" xr2:uid="{BA46FBF6-1A0D-403E-9867-FE4721430C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarea A" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Requisisto 2, 6 intstrucciones ram 100, intervalos de 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervalos de 5, Ram 200, 2 procesadores,3 instrucciones </t>
+    <t>Intervalos de 5, Ram 200, 2 procesadores,3 instrucciones.</t>
   </si>
 </sst>
 </file>
@@ -142,19 +142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +379,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7450,13 +7448,13 @@
       <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -7478,7 +7476,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>288.43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>473.06</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -7522,12 +7520,12 @@
         <v>658.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7547,12 +7545,12 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7563,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -7574,7 +7572,7 @@
         <v>50.76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>156.88999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -7607,7 +7605,7 @@
         <v>240.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -7618,14 +7616,14 @@
         <v>321.77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -7636,7 +7634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -7647,7 +7645,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>50</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>93.13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -7669,7 +7667,7 @@
         <v>155.62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>150</v>
       </c>
@@ -7680,7 +7678,7 @@
         <v>239.77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>200</v>
       </c>
@@ -7691,12 +7689,12 @@
         <v>314.89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7716,14 +7714,14 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7734,7 +7732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -7745,7 +7743,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7767,7 +7765,7 @@
         <v>288.43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -7778,7 +7776,7 @@
         <v>473.06</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -7789,19 +7787,14 @@
         <v>658.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -7812,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>25</v>
       </c>
@@ -7823,7 +7816,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>50</v>
       </c>
@@ -7834,7 +7827,7 @@
         <v>140.82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -7845,7 +7838,7 @@
         <v>288.94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>150</v>
       </c>
@@ -7856,7 +7849,7 @@
         <v>473.13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -7867,14 +7860,14 @@
         <v>658.79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +7878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -7896,7 +7889,7 @@
         <v>65.260000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>50</v>
       </c>
@@ -7907,7 +7900,7 @@
         <v>141.61000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>100</v>
       </c>
@@ -7918,7 +7911,7 @@
         <v>289.82</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>150</v>
       </c>
@@ -7929,7 +7922,7 @@
         <v>473.46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>200</v>
       </c>
@@ -7940,12 +7933,12 @@
         <v>659.4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7959,18 +7952,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD2ED9B-D9DA-4958-8064-8B8026392453}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="69.44140625" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7981,7 +7974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25</v>
       </c>
@@ -7992,7 +7985,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -8003,7 +7996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -8014,7 +8007,7 @@
         <v>144.19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -8025,7 +8018,7 @@
         <v>236.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -8036,48 +8029,24 @@
         <v>329.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
